--- a/Portfolio/Tables.xlsx
+++ b/Portfolio/Tables.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://torchacademygatewaytrust-my.sharepoint.com/personal/4004jatu18_nuast_org/Documents/CDMProfile/Documents/python files/Flash Cards Project/Portfolio/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\Python Code\Flash Cards Project\Portfolio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="138" documentId="8_{BCFF2D04-1230-49CA-A1FA-11BA9221D11E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{416AD954-EC9C-4E31-B564-B236194CB761}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0073BD91-90F4-4781-BC50-A1028518778A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="7320" yWindow="75" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{21CC89E9-ABEF-4EE6-B08C-797DA991129C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{21CC89E9-ABEF-4EE6-B08C-797DA991129C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="48">
   <si>
     <t>IPSO</t>
   </si>
@@ -180,13 +180,23 @@
 aplication</t>
   </si>
   <si>
-    <t>pass</t>
-  </si>
-  <si>
     <t>test1.png</t>
   </si>
   <si>
-    <t>tes2.mp4</t>
+    <t>Icon</t>
+  </si>
+  <si>
+    <t>Custom icon to be in corner of
+ application</t>
+  </si>
+  <si>
+    <t>The icon is in the corner</t>
+  </si>
+  <si>
+    <t>test2.mp4</t>
+  </si>
+  <si>
+    <t>test3.png</t>
   </si>
 </sst>
 </file>
@@ -281,13 +291,9 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AF2753F0-2826-4223-9FEB-71E9706E43AF}" name="Table2" displayName="Table2" ref="B2:D6" totalsRowShown="0">
-  <autoFilter ref="B2:D6" xr:uid="{26E97E75-BB67-46E7-9B6A-F5885B92CAF8}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AF2753F0-2826-4223-9FEB-71E9706E43AF}" name="Table2" displayName="Table2" ref="A1:C5" totalsRowShown="0">
+  <autoFilter ref="A1:C5" xr:uid="{26E97E75-BB67-46E7-9B6A-F5885B92CAF8}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{C737A47C-53E4-4B59-BB78-F518F3E00B68}" name="IPSO"/>
     <tableColumn id="2" xr3:uid="{21192E9F-856E-4476-BF8E-04A0ED7CA1EF}" name="Information"/>
@@ -298,15 +304,15 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{40A231CC-8C64-4D57-8C9F-BACA671453DE}" name="Table3" displayName="Table3" ref="A1:F5" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{40A231CC-8C64-4D57-8C9F-BACA671453DE}" name="Table3" displayName="Table3" ref="A1:F5" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <autoFilter ref="A1:F5" xr:uid="{40A231CC-8C64-4D57-8C9F-BACA671453DE}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{FE51A6E0-2747-416D-AFAA-94F354B9D621}" name="Test #" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{AF608E41-9CCC-48A2-A180-DE06E1A89DA3}" name="Description" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{0C78750D-27F9-4236-A4AA-17CD33C2BDDF}" name="Expected result" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{9773FF45-BCA1-441F-8E0A-206E914404B1}" name="Actual result" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{3977A4D4-D8F5-4E6D-9C8F-67126D3F5FB8}" name="Pass/fail" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{0CB0EF13-19B1-468C-A3BC-81BDB2E19313}" name="Evidence" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{FE51A6E0-2747-416D-AFAA-94F354B9D621}" name="Test #" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{AF608E41-9CCC-48A2-A180-DE06E1A89DA3}" name="Description" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{0C78750D-27F9-4236-A4AA-17CD33C2BDDF}" name="Expected result" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{9773FF45-BCA1-441F-8E0A-206E914404B1}" name="Actual result" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{3977A4D4-D8F5-4E6D-9C8F-67126D3F5FB8}" name="Pass/fail" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{0CB0EF13-19B1-468C-A3BC-81BDB2E19313}" name="Evidence" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -634,15 +640,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C73A6D0C-A41A-41E9-B477-7C14951DE3FD}">
-  <dimension ref="B2:D6"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8:K9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.140625" customWidth="1"/>
     <col min="6" max="6" width="8.28515625" customWidth="1"/>
     <col min="7" max="7" width="13.28515625" customWidth="1"/>
@@ -652,46 +660,46 @@
     <col min="11" max="11" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="3" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+    <row r="5" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
     </row>
@@ -705,10 +713,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B34F6EC-96E1-408B-9A98-292AA9A3C6DD}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -759,7 +767,7 @@
         <v>38</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -776,10 +784,27 @@
         <v>41</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F3" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>44</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -879,11 +904,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="0ee39083-84cb-4edb-a9c1-df561775539e" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1128,27 +1154,17 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="0ee39083-84cb-4edb-a9c1-df561775539e" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11A14DAC-1B72-4D71-83A1-A026BAEE032F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCEBCFFB-91CB-4F46-92E0-949AF4685C88}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="0ee39083-84cb-4edb-a9c1-df561775539e"/>
-    <ds:schemaRef ds:uri="b25daaaa-b37a-4736-9ff5-18bede313c6a"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1173,9 +1189,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCEBCFFB-91CB-4F46-92E0-949AF4685C88}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11A14DAC-1B72-4D71-83A1-A026BAEE032F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="0ee39083-84cb-4edb-a9c1-df561775539e"/>
+    <ds:schemaRef ds:uri="b25daaaa-b37a-4736-9ff5-18bede313c6a"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Portfolio/Tables.xlsx
+++ b/Portfolio/Tables.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\Python Code\Flash Cards Project\Portfolio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b6f0ab8292862a22/Documents/Python files/Flash-Cards-Project/Portfolio/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0073BD91-90F4-4781-BC50-A1028518778A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{0073BD91-90F4-4781-BC50-A1028518778A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{43916D9A-9DD1-423A-B541-4C611555C22B}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{21CC89E9-ABEF-4EE6-B08C-797DA991129C}"/>
+    <workbookView xWindow="7200" yWindow="75" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{21CC89E9-ABEF-4EE6-B08C-797DA991129C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="57">
   <si>
     <t>IPSO</t>
   </si>
@@ -197,6 +197,35 @@
   </si>
   <si>
     <t>test3.png</t>
+  </si>
+  <si>
+    <t>File changing</t>
+  </si>
+  <si>
+    <t>Being able to choose between all avaliable .txt files and the last selected one to be shown</t>
+  </si>
+  <si>
+    <t>I can choose from avaliable files 
+but can't see what was last picked</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>test4.png</t>
+  </si>
+  <si>
+    <t>File changing 2</t>
+  </si>
+  <si>
+    <t>I can choose from avaliable files 
+and can see what file was last picked</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>test5.png</t>
   </si>
 </sst>
 </file>
@@ -304,8 +333,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{40A231CC-8C64-4D57-8C9F-BACA671453DE}" name="Table3" displayName="Table3" ref="A1:F5" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A1:F5" xr:uid="{40A231CC-8C64-4D57-8C9F-BACA671453DE}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{40A231CC-8C64-4D57-8C9F-BACA671453DE}" name="Table3" displayName="Table3" ref="A1:F12" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A1:F12" xr:uid="{40A231CC-8C64-4D57-8C9F-BACA671453DE}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{FE51A6E0-2747-416D-AFAA-94F354B9D621}" name="Test #" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{AF608E41-9CCC-48A2-A180-DE06E1A89DA3}" name="Description" dataDxfId="4"/>
@@ -642,8 +671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C73A6D0C-A41A-41E9-B477-7C14951DE3FD}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -713,10 +742,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B34F6EC-96E1-408B-9A98-292AA9A3C6DD}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -805,6 +834,40 @@
       </c>
       <c r="F4" s="3" t="s">
         <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -913,6 +976,14 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="0ee39083-84cb-4edb-a9c1-df561775539e" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D09D92518218B7428F68173D64166B16" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7fd56902520410809d53ba577412eace">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="0ee39083-84cb-4edb-a9c1-df561775539e" xmlns:ns4="b25daaaa-b37a-4736-9ff5-18bede313c6a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6e81dc15cfd2fd1711b120dd48b28802" ns3:_="" ns4:_="">
     <xsd:import namespace="0ee39083-84cb-4edb-a9c1-df561775539e"/>
@@ -1153,14 +1224,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="0ee39083-84cb-4edb-a9c1-df561775539e" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCEBCFFB-91CB-4F46-92E0-949AF4685C88}">
   <ds:schemaRefs>
@@ -1170,6 +1233,23 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11A14DAC-1B72-4D71-83A1-A026BAEE032F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="0ee39083-84cb-4edb-a9c1-df561775539e"/>
+    <ds:schemaRef ds:uri="b25daaaa-b37a-4736-9ff5-18bede313c6a"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{010BC445-C0F8-4A34-97F5-A0FCE9F09E41}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1186,21 +1266,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11A14DAC-1B72-4D71-83A1-A026BAEE032F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="0ee39083-84cb-4edb-a9c1-df561775539e"/>
-    <ds:schemaRef ds:uri="b25daaaa-b37a-4736-9ff5-18bede313c6a"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Portfolio/Tables.xlsx
+++ b/Portfolio/Tables.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b6f0ab8292862a22/Documents/Python files/Flash-Cards-Project/Portfolio/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\Python Code\Flash Cards Project\Portfolio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{0073BD91-90F4-4781-BC50-A1028518778A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{43916D9A-9DD1-423A-B541-4C611555C22B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3381DDE6-BBDB-450F-8937-9C7DF03AD593}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="75" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{21CC89E9-ABEF-4EE6-B08C-797DA991129C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{21CC89E9-ABEF-4EE6-B08C-797DA991129C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="62">
   <si>
     <t>IPSO</t>
   </si>
@@ -222,10 +222,32 @@
 and can see what file was last picked</t>
   </si>
   <si>
-    <t>pass</t>
-  </si>
-  <si>
     <t>test5.png</t>
+  </si>
+  <si>
+    <t>Buttons showing 
+definitions</t>
+  </si>
+  <si>
+    <t>The 3 buttons should show the 
+definitions on them one of them will be
+the correct one and two other will be incorrect with no duplicates</t>
+  </si>
+  <si>
+    <t>The buttons showed the correct
+ one but numbers for the two 
+incorrect ones.</t>
+  </si>
+  <si>
+    <t>Test6.png</t>
+  </si>
+  <si>
+    <t>The 3 buttons  showed the 
+definitions on them one  them 
+was the correct one and the two other were incorrect with no duplicates</t>
+  </si>
+  <si>
+    <t>Test7.png</t>
   </si>
 </sst>
 </file>
@@ -373,9 +395,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -413,7 +435,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -519,7 +541,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -661,7 +683,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -742,10 +764,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B34F6EC-96E1-408B-9A98-292AA9A3C6DD}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -864,10 +886,44 @@
         <v>54</v>
       </c>
       <c r="E6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F6" s="3" t="s">
+    </row>
+    <row r="7" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
         <v>56</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -976,14 +1032,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="0ee39083-84cb-4edb-a9c1-df561775539e" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D09D92518218B7428F68173D64166B16" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7fd56902520410809d53ba577412eace">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="0ee39083-84cb-4edb-a9c1-df561775539e" xmlns:ns4="b25daaaa-b37a-4736-9ff5-18bede313c6a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6e81dc15cfd2fd1711b120dd48b28802" ns3:_="" ns4:_="">
     <xsd:import namespace="0ee39083-84cb-4edb-a9c1-df561775539e"/>
@@ -1224,6 +1272,14 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="0ee39083-84cb-4edb-a9c1-df561775539e" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCEBCFFB-91CB-4F46-92E0-949AF4685C88}">
   <ds:schemaRefs>
@@ -1233,23 +1289,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11A14DAC-1B72-4D71-83A1-A026BAEE032F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="0ee39083-84cb-4edb-a9c1-df561775539e"/>
-    <ds:schemaRef ds:uri="b25daaaa-b37a-4736-9ff5-18bede313c6a"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{010BC445-C0F8-4A34-97F5-A0FCE9F09E41}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1266,4 +1305,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11A14DAC-1B72-4D71-83A1-A026BAEE032F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="0ee39083-84cb-4edb-a9c1-df561775539e"/>
+    <ds:schemaRef ds:uri="b25daaaa-b37a-4736-9ff5-18bede313c6a"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Portfolio/Tables.xlsx
+++ b/Portfolio/Tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\Python Code\Flash Cards Project\Portfolio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3381DDE6-BBDB-450F-8937-9C7DF03AD593}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E66B61CB-1CC5-4532-B984-4EFE52C57C36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{21CC89E9-ABEF-4EE6-B08C-797DA991129C}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{21CC89E9-ABEF-4EE6-B08C-797DA991129C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="70">
   <si>
     <t>IPSO</t>
   </si>
@@ -248,6 +248,35 @@
   </si>
   <si>
     <t>Test7.png</t>
+  </si>
+  <si>
+    <t>Buttons showing 
+corect answer</t>
+  </si>
+  <si>
+    <t>Test8.png</t>
+  </si>
+  <si>
+    <t>The continue buttton shoiuldn't do 
+anything untill an answer is chosen. Then it will allow the user to go to the next question.</t>
+  </si>
+  <si>
+    <t>The 3 buttons should go red/ green
+ depending on which is correct</t>
+  </si>
+  <si>
+    <t>The 3 buttons go red/ green
+ depending on which is correct</t>
+  </si>
+  <si>
+    <t>Continue button working</t>
+  </si>
+  <si>
+    <t>Test9.mp4</t>
+  </si>
+  <si>
+    <t>The continue buttton doesn't
+anything.</t>
   </si>
 </sst>
 </file>
@@ -764,16 +793,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B34F6EC-96E1-408B-9A98-292AA9A3C6DD}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="3"/>
-    <col min="2" max="2" width="19.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="36.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.85546875" style="3" bestFit="1" customWidth="1"/>
@@ -924,6 +953,40 @@
       </c>
       <c r="F8" s="3" t="s">
         <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="B10" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1032,6 +1095,14 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="0ee39083-84cb-4edb-a9c1-df561775539e" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D09D92518218B7428F68173D64166B16" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7fd56902520410809d53ba577412eace">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="0ee39083-84cb-4edb-a9c1-df561775539e" xmlns:ns4="b25daaaa-b37a-4736-9ff5-18bede313c6a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6e81dc15cfd2fd1711b120dd48b28802" ns3:_="" ns4:_="">
     <xsd:import namespace="0ee39083-84cb-4edb-a9c1-df561775539e"/>
@@ -1272,14 +1343,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="0ee39083-84cb-4edb-a9c1-df561775539e" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCEBCFFB-91CB-4F46-92E0-949AF4685C88}">
   <ds:schemaRefs>
@@ -1289,6 +1352,23 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11A14DAC-1B72-4D71-83A1-A026BAEE032F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="0ee39083-84cb-4edb-a9c1-df561775539e"/>
+    <ds:schemaRef ds:uri="b25daaaa-b37a-4736-9ff5-18bede313c6a"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{010BC445-C0F8-4A34-97F5-A0FCE9F09E41}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1305,21 +1385,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11A14DAC-1B72-4D71-83A1-A026BAEE032F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="0ee39083-84cb-4edb-a9c1-df561775539e"/>
-    <ds:schemaRef ds:uri="b25daaaa-b37a-4736-9ff5-18bede313c6a"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Portfolio/Tables.xlsx
+++ b/Portfolio/Tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\Python Code\Flash Cards Project\Portfolio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E66B61CB-1CC5-4532-B984-4EFE52C57C36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{534EB722-AC53-42D9-A973-9300DFC4773D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{21CC89E9-ABEF-4EE6-B08C-797DA991129C}"/>
+    <workbookView xWindow="43095" yWindow="0" windowWidth="14610" windowHeight="16305" tabRatio="822" activeTab="1" xr2:uid="{21CC89E9-ABEF-4EE6-B08C-797DA991129C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="77">
   <si>
     <t>IPSO</t>
   </si>
@@ -215,9 +215,6 @@
     <t>test4.png</t>
   </si>
   <si>
-    <t>File changing 2</t>
-  </si>
-  <si>
     <t>I can choose from avaliable files 
 and can see what file was last picked</t>
   </si>
@@ -277,6 +274,35 @@
   <si>
     <t>The continue buttton doesn't
 anything.</t>
+  </si>
+  <si>
+    <t>Continue button working
+ test 2</t>
+  </si>
+  <si>
+    <t>The continue buttton doesn't
+anything untill I want it to. But when  I change screen I get an infinatly recursive error.</t>
+  </si>
+  <si>
+    <t>Continue button working
+test 3</t>
+  </si>
+  <si>
+    <t>Buttons showing 
+definitions test 2</t>
+  </si>
+  <si>
+    <t>File changing test 2</t>
+  </si>
+  <si>
+    <t>The continue buttton doesn't
+anything untill I want it to. When a question is answered it allows me to go to the next one</t>
+  </si>
+  <si>
+    <t>Test10.mp4</t>
+  </si>
+  <si>
+    <t>Test11.mp4</t>
   </si>
 </sst>
 </file>
@@ -793,10 +819,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B34F6EC-96E1-408B-9A98-292AA9A3C6DD}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -906,87 +932,121 @@
     </row>
     <row r="6" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>51</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="D8" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>51</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1095,14 +1155,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="0ee39083-84cb-4edb-a9c1-df561775539e" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D09D92518218B7428F68173D64166B16" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7fd56902520410809d53ba577412eace">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="0ee39083-84cb-4edb-a9c1-df561775539e" xmlns:ns4="b25daaaa-b37a-4736-9ff5-18bede313c6a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6e81dc15cfd2fd1711b120dd48b28802" ns3:_="" ns4:_="">
     <xsd:import namespace="0ee39083-84cb-4edb-a9c1-df561775539e"/>
@@ -1343,6 +1395,14 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="0ee39083-84cb-4edb-a9c1-df561775539e" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCEBCFFB-91CB-4F46-92E0-949AF4685C88}">
   <ds:schemaRefs>
@@ -1352,23 +1412,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11A14DAC-1B72-4D71-83A1-A026BAEE032F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="0ee39083-84cb-4edb-a9c1-df561775539e"/>
-    <ds:schemaRef ds:uri="b25daaaa-b37a-4736-9ff5-18bede313c6a"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{010BC445-C0F8-4A34-97F5-A0FCE9F09E41}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1385,4 +1428,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11A14DAC-1B72-4D71-83A1-A026BAEE032F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="0ee39083-84cb-4edb-a9c1-df561775539e"/>
+    <ds:schemaRef ds:uri="b25daaaa-b37a-4736-9ff5-18bede313c6a"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Portfolio/Tables.xlsx
+++ b/Portfolio/Tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\Python Code\Flash Cards Project\Portfolio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{534EB722-AC53-42D9-A973-9300DFC4773D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84081EAB-AB3E-42F6-B51F-E9CB59CA68FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43095" yWindow="0" windowWidth="14610" windowHeight="16305" tabRatio="822" activeTab="1" xr2:uid="{21CC89E9-ABEF-4EE6-B08C-797DA991129C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="822" activeTab="1" xr2:uid="{21CC89E9-ABEF-4EE6-B08C-797DA991129C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -247,10 +247,6 @@
     <t>Test7.png</t>
   </si>
   <si>
-    <t>Buttons showing 
-corect answer</t>
-  </si>
-  <si>
     <t>Test8.png</t>
   </si>
   <si>
@@ -303,6 +299,10 @@
   </si>
   <si>
     <t>Test11.mp4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buttons showing 
+corect answer </t>
   </si>
 </sst>
 </file>
@@ -359,7 +359,133 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="15">
+    <dxf>
+      <font>
+        <color rgb="FF600000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF3A5925"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF3A5925"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF600000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF600000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF3A5925"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -386,6 +512,12 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF600000"/>
+      <color rgb="FF3A5925"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -410,15 +542,15 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{40A231CC-8C64-4D57-8C9F-BACA671453DE}" name="Table3" displayName="Table3" ref="A1:F12" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{40A231CC-8C64-4D57-8C9F-BACA671453DE}" name="Table3" displayName="Table3" ref="A1:F12" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
   <autoFilter ref="A1:F12" xr:uid="{40A231CC-8C64-4D57-8C9F-BACA671453DE}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{FE51A6E0-2747-416D-AFAA-94F354B9D621}" name="Test #" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{AF608E41-9CCC-48A2-A180-DE06E1A89DA3}" name="Description" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{0C78750D-27F9-4236-A4AA-17CD33C2BDDF}" name="Expected result" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{9773FF45-BCA1-441F-8E0A-206E914404B1}" name="Actual result" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{3977A4D4-D8F5-4E6D-9C8F-67126D3F5FB8}" name="Pass/fail" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{0CB0EF13-19B1-468C-A3BC-81BDB2E19313}" name="Evidence" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{FE51A6E0-2747-416D-AFAA-94F354B9D621}" name="Test #" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{AF608E41-9CCC-48A2-A180-DE06E1A89DA3}" name="Description" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{0C78750D-27F9-4236-A4AA-17CD33C2BDDF}" name="Expected result" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{9773FF45-BCA1-441F-8E0A-206E914404B1}" name="Actual result" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{3977A4D4-D8F5-4E6D-9C8F-67126D3F5FB8}" name="Pass/fail" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{0CB0EF13-19B1-468C-A3BC-81BDB2E19313}" name="Evidence" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -821,8 +953,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B34F6EC-96E1-408B-9A98-292AA9A3C6DD}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -897,6 +1029,9 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
       <c r="B4" s="3" t="s">
         <v>43</v>
       </c>
@@ -914,6 +1049,9 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
       <c r="B5" s="3" t="s">
         <v>48</v>
       </c>
@@ -931,8 +1069,11 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
       <c r="B6" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>49</v>
@@ -948,6 +1089,9 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
       <c r="B7" s="2" t="s">
         <v>55</v>
       </c>
@@ -965,8 +1109,11 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
       <c r="B8" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>56</v>
@@ -982,77 +1129,98 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
       <c r="B9" s="2" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F9" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="B10" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="D10" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>51</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
       <c r="B11" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>51</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
       <c r="B12" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="E2:E999">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",E2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",E2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -1155,6 +1323,14 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="0ee39083-84cb-4edb-a9c1-df561775539e" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D09D92518218B7428F68173D64166B16" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7fd56902520410809d53ba577412eace">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="0ee39083-84cb-4edb-a9c1-df561775539e" xmlns:ns4="b25daaaa-b37a-4736-9ff5-18bede313c6a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6e81dc15cfd2fd1711b120dd48b28802" ns3:_="" ns4:_="">
     <xsd:import namespace="0ee39083-84cb-4edb-a9c1-df561775539e"/>
@@ -1395,14 +1571,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="0ee39083-84cb-4edb-a9c1-df561775539e" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCEBCFFB-91CB-4F46-92E0-949AF4685C88}">
   <ds:schemaRefs>
@@ -1412,6 +1580,23 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11A14DAC-1B72-4D71-83A1-A026BAEE032F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="0ee39083-84cb-4edb-a9c1-df561775539e"/>
+    <ds:schemaRef ds:uri="b25daaaa-b37a-4736-9ff5-18bede313c6a"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{010BC445-C0F8-4A34-97F5-A0FCE9F09E41}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1428,21 +1613,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11A14DAC-1B72-4D71-83A1-A026BAEE032F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="0ee39083-84cb-4edb-a9c1-df561775539e"/>
-    <ds:schemaRef ds:uri="b25daaaa-b37a-4736-9ff5-18bede313c6a"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Portfolio/Tables.xlsx
+++ b/Portfolio/Tables.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\Python Code\Flash Cards Project\Portfolio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Flash-Cards-Project\Portfolio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84081EAB-AB3E-42F6-B51F-E9CB59CA68FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDD55A13-1FC0-4F99-9611-17AC5DA59A8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="822" activeTab="1" xr2:uid="{21CC89E9-ABEF-4EE6-B08C-797DA991129C}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="822" activeTab="1" xr2:uid="{21CC89E9-ABEF-4EE6-B08C-797DA991129C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="84">
   <si>
     <t>IPSO</t>
   </si>
@@ -212,14 +212,8 @@
     <t>Fail</t>
   </si>
   <si>
-    <t>test4.png</t>
-  </si>
-  <si>
     <t>I can choose from avaliable files 
 and can see what file was last picked</t>
-  </si>
-  <si>
-    <t>test5.png</t>
   </si>
   <si>
     <t>Buttons showing 
@@ -303,6 +297,37 @@
   <si>
     <t xml:space="preserve">Buttons showing 
 corect answer </t>
+  </si>
+  <si>
+    <t>Continue button working
+test 4</t>
+  </si>
+  <si>
+    <t>when you answer every question twice
+ it should continue</t>
+  </si>
+  <si>
+    <t>it works until the last one then
+ it only shows the last one</t>
+  </si>
+  <si>
+    <t>Test12.png</t>
+  </si>
+  <si>
+    <t>Continue button working
+test 5</t>
+  </si>
+  <si>
+    <t>it workSs completely showing the to be disigned end screen</t>
+  </si>
+  <si>
+    <t>Test13.png</t>
+  </si>
+  <si>
+    <t>test4.mp4</t>
+  </si>
+  <si>
+    <t>test5.mp4</t>
   </si>
 </sst>
 </file>
@@ -359,14 +384,14 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="13">
     <dxf>
       <font>
-        <color rgb="FF600000"/>
+        <color auto="1"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
         </patternFill>
       </fill>
       <border>
@@ -382,15 +407,40 @@
         <bottom style="thin">
           <color auto="1"/>
         </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF3A5925"/>
+        <color auto="1"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FF92D050"/>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
         </patternFill>
       </fill>
       <border>
@@ -406,6 +456,8 @@
         <bottom style="thin">
           <color auto="1"/>
         </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -455,36 +507,6 @@
           <color auto="1"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF600000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF3A5925"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -542,15 +564,15 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{40A231CC-8C64-4D57-8C9F-BACA671453DE}" name="Table3" displayName="Table3" ref="A1:F12" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
-  <autoFilter ref="A1:F12" xr:uid="{40A231CC-8C64-4D57-8C9F-BACA671453DE}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{40A231CC-8C64-4D57-8C9F-BACA671453DE}" name="Table3" displayName="Table3" ref="A1:F14" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+  <autoFilter ref="A1:F14" xr:uid="{40A231CC-8C64-4D57-8C9F-BACA671453DE}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{FE51A6E0-2747-416D-AFAA-94F354B9D621}" name="Test #" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{AF608E41-9CCC-48A2-A180-DE06E1A89DA3}" name="Description" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{0C78750D-27F9-4236-A4AA-17CD33C2BDDF}" name="Expected result" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{9773FF45-BCA1-441F-8E0A-206E914404B1}" name="Actual result" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{3977A4D4-D8F5-4E6D-9C8F-67126D3F5FB8}" name="Pass/fail" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{0CB0EF13-19B1-468C-A3BC-81BDB2E19313}" name="Evidence" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{FE51A6E0-2747-416D-AFAA-94F354B9D621}" name="Test #" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{AF608E41-9CCC-48A2-A180-DE06E1A89DA3}" name="Description" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{0C78750D-27F9-4236-A4AA-17CD33C2BDDF}" name="Expected result" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{9773FF45-BCA1-441F-8E0A-206E914404B1}" name="Actual result" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{3977A4D4-D8F5-4E6D-9C8F-67126D3F5FB8}" name="Pass/fail" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{0CB0EF13-19B1-468C-A3BC-81BDB2E19313}" name="Evidence" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -880,8 +902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C73A6D0C-A41A-41E9-B477-7C14951DE3FD}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -951,10 +973,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B34F6EC-96E1-408B-9A98-292AA9A3C6DD}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1065,7 +1087,7 @@
         <v>51</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -1073,19 +1095,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="75" x14ac:dyDescent="0.25">
@@ -1093,19 +1115,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>51</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="75" x14ac:dyDescent="0.25">
@@ -1113,19 +1135,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1133,19 +1155,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -1153,19 +1175,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>51</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -1173,19 +1195,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>51</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -1193,28 +1215,77 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F12" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>75</v>
       </c>
+      <c r="C13" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>81</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="E2:E999">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",E2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",E2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1:F1048576">
+    <cfRule type="endsWith" dxfId="2" priority="2" operator="endsWith" text=".png">
+      <formula>RIGHT(F1,LEN(".png"))=".png"</formula>
+    </cfRule>
+    <cfRule type="endsWith" dxfId="1" priority="1" operator="endsWith" text=".mp4">
+      <formula>RIGHT(F1,LEN(".mp4"))=".mp4"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1230,7 +1301,7 @@
   <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B2" sqref="B2:L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
